--- a/Englishor/Doc/Workbook1.xlsx
+++ b/Englishor/Doc/Workbook1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="41320" yWindow="2380" windowWidth="28800" windowHeight="17600" tabRatio="500"/>
+    <workbookView xWindow="38400" yWindow="460" windowWidth="38400" windowHeight="21140" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="161">
   <si>
     <t>Tôi vừa mua 1 con chó</t>
   </si>
@@ -200,9 +200,6 @@
     <t>Cô ấy đã ăn 2 chiếc xúc xích</t>
   </si>
   <si>
-    <t>She ate two sausages</t>
-  </si>
-  <si>
     <t>Cháu trai của bà ấy rất thông minh</t>
   </si>
   <si>
@@ -296,9 +293,6 @@
     <t>Chơi cầu lông rất dễ</t>
   </si>
   <si>
-    <t>Playing badminton is easy</t>
-  </si>
-  <si>
     <t>Cô ấy không biết bơi</t>
   </si>
   <si>
@@ -308,9 +302,6 @@
     <t>Chơi thể thao giúp chúng ta khỏe mạnh</t>
   </si>
   <si>
-    <t>Playing sports helps keep us healthy</t>
-  </si>
-  <si>
     <t>Giải đấu này sẽ không có môn cưỡi ngựa</t>
   </si>
   <si>
@@ -362,9 +353,6 @@
     <t>Tôi không thích áo trắng vì chúng dễ bẩn</t>
   </si>
   <si>
-    <t>I do not like white shirts because they are so dirty</t>
-  </si>
-  <si>
     <t>Tại sao bạn thích màu tím?</t>
   </si>
   <si>
@@ -380,9 +368,6 @@
     <t>Chiếc áo khoác màu nâu đỏ kia trông thật đặc biệt</t>
   </si>
   <si>
-    <t>The maroon coat looked so special</t>
-  </si>
-  <si>
     <t>laborer</t>
   </si>
   <si>
@@ -392,24 +377,12 @@
     <t>fat</t>
   </si>
   <si>
-    <t>eating</t>
-  </si>
-  <si>
     <t>food</t>
   </si>
   <si>
     <t>can't</t>
   </si>
   <si>
-    <t>riding</t>
-  </si>
-  <si>
-    <t>isn't</t>
-  </si>
-  <si>
-    <t>don't</t>
-  </si>
-  <si>
     <t>comfortable</t>
   </si>
   <si>
@@ -419,9 +392,6 @@
     <t>colour</t>
   </si>
   <si>
-    <t>easy to</t>
-  </si>
-  <si>
     <t>have just</t>
   </si>
   <si>
@@ -446,49 +416,100 @@
     <t>Bears like eating fishes</t>
   </si>
   <si>
-    <t>tired</t>
-  </si>
-  <si>
-    <t>pupil, clever</t>
-  </si>
-  <si>
-    <t>math</t>
-  </si>
-  <si>
     <t>father</t>
   </si>
   <si>
     <t>usually</t>
   </si>
   <si>
-    <t xml:space="preserve">to eat, fishes, </t>
-  </si>
-  <si>
-    <t>don't, eating</t>
-  </si>
-  <si>
     <t>good</t>
   </si>
   <si>
-    <t>grandson, clever</t>
-  </si>
-  <si>
     <t>gift</t>
   </si>
   <si>
     <t>I'm</t>
   </si>
   <si>
-    <t>to sit, love</t>
-  </si>
-  <si>
-    <t>mom, mum</t>
-  </si>
-  <si>
-    <t>five</t>
-  </si>
-  <si>
-    <t>tv</t>
+    <t>grandson, clever, so</t>
+  </si>
+  <si>
+    <t>bicycle</t>
+  </si>
+  <si>
+    <t>so</t>
+  </si>
+  <si>
+    <t>never play</t>
+  </si>
+  <si>
+    <t>popular</t>
+  </si>
+  <si>
+    <t>Playing badminton is very easy</t>
+  </si>
+  <si>
+    <t>Playing sports helps us healthy</t>
+  </si>
+  <si>
+    <t>riding, won't</t>
+  </si>
+  <si>
+    <t>isn't, nice</t>
+  </si>
+  <si>
+    <t>don't, love. Prefer</t>
+  </si>
+  <si>
+    <t>suit, fit</t>
+  </si>
+  <si>
+    <t>I do not like white shirts because they are easy to dirty</t>
+  </si>
+  <si>
+    <t>choose</t>
+  </si>
+  <si>
+    <t>That maroon coat looks so special</t>
+  </si>
+  <si>
+    <t>brown red, very</t>
+  </si>
+  <si>
+    <t>tired,is</t>
+  </si>
+  <si>
+    <t>to sit, love, prefer</t>
+  </si>
+  <si>
+    <t>mom, mum, five</t>
+  </si>
+  <si>
+    <t>She ate 2 sausages</t>
+  </si>
+  <si>
+    <t>two</t>
+  </si>
+  <si>
+    <t>math, isn't</t>
+  </si>
+  <si>
+    <t>tv, so</t>
+  </si>
+  <si>
+    <t>pupil, clever, so</t>
+  </si>
+  <si>
+    <t>to eat, love, prefer</t>
+  </si>
+  <si>
+    <t>eating, love, prefer</t>
+  </si>
+  <si>
+    <t>don't, eating, love, prefer</t>
+  </si>
+  <si>
+    <t>don't, love, prefer</t>
   </si>
 </sst>
 </file>
@@ -537,8 +558,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -547,11 +570,13 @@
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="7">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -829,14 +854,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F61"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="40.33203125" customWidth="1"/>
-    <col min="4" max="4" width="44.5" customWidth="1"/>
+    <col min="4" max="4" width="46.5" customWidth="1"/>
     <col min="6" max="6" width="28" customWidth="1"/>
   </cols>
   <sheetData>
@@ -854,7 +879,7 @@
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.2">
@@ -871,7 +896,7 @@
         <v>1</v>
       </c>
       <c r="F3" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.2">
@@ -896,10 +921,13 @@
         <v>6</v>
       </c>
       <c r="D5" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="E5">
         <v>1</v>
+      </c>
+      <c r="F5" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.2">
@@ -916,7 +944,7 @@
         <v>1</v>
       </c>
       <c r="F6" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.2">
@@ -933,7 +961,7 @@
         <v>1</v>
       </c>
       <c r="F7" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.2">
@@ -950,7 +978,7 @@
         <v>1</v>
       </c>
       <c r="F8" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.2">
@@ -981,7 +1009,7 @@
         <v>1</v>
       </c>
       <c r="F10" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.2">
@@ -992,13 +1020,13 @@
         <v>17</v>
       </c>
       <c r="D11" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="E11">
         <v>1</v>
       </c>
       <c r="F11" t="s">
-        <v>144</v>
+        <v>157</v>
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.2">
@@ -1015,7 +1043,7 @@
         <v>2</v>
       </c>
       <c r="F12" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.2">
@@ -1032,7 +1060,7 @@
         <v>2</v>
       </c>
       <c r="F13" t="s">
-        <v>140</v>
+        <v>156</v>
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.2">
@@ -1049,7 +1077,7 @@
         <v>2</v>
       </c>
       <c r="F14" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.2">
@@ -1080,7 +1108,7 @@
         <v>2</v>
       </c>
       <c r="F16" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.2">
@@ -1097,7 +1125,7 @@
         <v>2</v>
       </c>
       <c r="F17" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.2">
@@ -1128,7 +1156,7 @@
         <v>2</v>
       </c>
       <c r="F19" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.2">
@@ -1158,6 +1186,9 @@
       <c r="E21">
         <v>2</v>
       </c>
+      <c r="F21" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B22">
@@ -1173,7 +1204,7 @@
         <v>3</v>
       </c>
       <c r="F22" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.2">
@@ -1204,7 +1235,7 @@
         <v>3</v>
       </c>
       <c r="F24" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.2">
@@ -1221,7 +1252,7 @@
         <v>3</v>
       </c>
       <c r="F25" t="s">
-        <v>121</v>
+        <v>158</v>
       </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.2">
@@ -1238,7 +1269,7 @@
         <v>3</v>
       </c>
       <c r="F26" t="s">
-        <v>145</v>
+        <v>159</v>
       </c>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.2">
@@ -1255,7 +1286,7 @@
         <v>3</v>
       </c>
       <c r="F27" t="s">
-        <v>146</v>
+        <v>131</v>
       </c>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.2">
@@ -1272,7 +1303,7 @@
         <v>3</v>
       </c>
       <c r="F28" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.2">
@@ -1311,13 +1342,13 @@
         <v>56</v>
       </c>
       <c r="D31" t="s">
-        <v>57</v>
+        <v>152</v>
       </c>
       <c r="E31">
         <v>3</v>
       </c>
-      <c r="F31">
-        <v>2</v>
+      <c r="F31" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.2">
@@ -1325,16 +1356,16 @@
         <v>31</v>
       </c>
       <c r="C32" t="s">
+        <v>57</v>
+      </c>
+      <c r="D32" t="s">
         <v>58</v>
-      </c>
-      <c r="D32" t="s">
-        <v>59</v>
       </c>
       <c r="E32">
         <v>4</v>
       </c>
       <c r="F32" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.2">
@@ -1342,13 +1373,16 @@
         <v>32</v>
       </c>
       <c r="C33" t="s">
+        <v>59</v>
+      </c>
+      <c r="D33" t="s">
         <v>60</v>
-      </c>
-      <c r="D33" t="s">
-        <v>61</v>
       </c>
       <c r="E33">
         <v>4</v>
+      </c>
+      <c r="F33" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.2">
@@ -1356,10 +1390,10 @@
         <v>33</v>
       </c>
       <c r="C34" t="s">
+        <v>61</v>
+      </c>
+      <c r="D34" t="s">
         <v>62</v>
-      </c>
-      <c r="D34" t="s">
-        <v>63</v>
       </c>
       <c r="E34">
         <v>4</v>
@@ -1370,16 +1404,16 @@
         <v>34</v>
       </c>
       <c r="C35" t="s">
+        <v>63</v>
+      </c>
+      <c r="D35" t="s">
         <v>64</v>
-      </c>
-      <c r="D35" t="s">
-        <v>65</v>
       </c>
       <c r="E35">
         <v>4</v>
       </c>
       <c r="F35" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.2">
@@ -1387,16 +1421,16 @@
         <v>35</v>
       </c>
       <c r="C36" t="s">
+        <v>65</v>
+      </c>
+      <c r="D36" t="s">
         <v>66</v>
-      </c>
-      <c r="D36" t="s">
-        <v>67</v>
       </c>
       <c r="E36">
         <v>4</v>
       </c>
       <c r="F36" t="s">
-        <v>149</v>
+        <v>133</v>
       </c>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.2">
@@ -1404,10 +1438,10 @@
         <v>36</v>
       </c>
       <c r="C37" t="s">
+        <v>67</v>
+      </c>
+      <c r="D37" t="s">
         <v>68</v>
-      </c>
-      <c r="D37" t="s">
-        <v>69</v>
       </c>
       <c r="E37">
         <v>4</v>
@@ -1421,10 +1455,10 @@
         <v>37</v>
       </c>
       <c r="C38" t="s">
+        <v>69</v>
+      </c>
+      <c r="D38" t="s">
         <v>70</v>
-      </c>
-      <c r="D38" t="s">
-        <v>71</v>
       </c>
       <c r="E38">
         <v>4</v>
@@ -1438,16 +1472,16 @@
         <v>38</v>
       </c>
       <c r="C39" t="s">
+        <v>71</v>
+      </c>
+      <c r="D39" t="s">
         <v>72</v>
-      </c>
-      <c r="D39" t="s">
-        <v>73</v>
       </c>
       <c r="E39">
         <v>4</v>
       </c>
       <c r="F39" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.2">
@@ -1455,16 +1489,13 @@
         <v>39</v>
       </c>
       <c r="C40" t="s">
+        <v>73</v>
+      </c>
+      <c r="D40" t="s">
         <v>74</v>
-      </c>
-      <c r="D40" t="s">
-        <v>75</v>
       </c>
       <c r="E40">
         <v>4</v>
-      </c>
-      <c r="F40" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="41" spans="2:6" x14ac:dyDescent="0.2">
@@ -1472,16 +1503,16 @@
         <v>40</v>
       </c>
       <c r="C41" t="s">
+        <v>75</v>
+      </c>
+      <c r="D41" t="s">
         <v>76</v>
-      </c>
-      <c r="D41" t="s">
-        <v>77</v>
       </c>
       <c r="E41">
         <v>4</v>
       </c>
       <c r="F41" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
     </row>
     <row r="42" spans="2:6" x14ac:dyDescent="0.2">
@@ -1489,13 +1520,16 @@
         <v>41</v>
       </c>
       <c r="C42" t="s">
+        <v>77</v>
+      </c>
+      <c r="D42" t="s">
         <v>78</v>
-      </c>
-      <c r="D42" t="s">
-        <v>79</v>
       </c>
       <c r="E42">
         <v>5</v>
+      </c>
+      <c r="F42" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="43" spans="2:6" x14ac:dyDescent="0.2">
@@ -1503,13 +1537,16 @@
         <v>42</v>
       </c>
       <c r="C43" t="s">
+        <v>79</v>
+      </c>
+      <c r="D43" t="s">
         <v>80</v>
-      </c>
-      <c r="D43" t="s">
-        <v>81</v>
       </c>
       <c r="E43">
         <v>5</v>
+      </c>
+      <c r="F43" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="44" spans="2:6" x14ac:dyDescent="0.2">
@@ -1517,13 +1554,16 @@
         <v>43</v>
       </c>
       <c r="C44" t="s">
+        <v>81</v>
+      </c>
+      <c r="D44" t="s">
         <v>82</v>
-      </c>
-      <c r="D44" t="s">
-        <v>83</v>
       </c>
       <c r="E44">
         <v>5</v>
+      </c>
+      <c r="F44" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="45" spans="2:6" x14ac:dyDescent="0.2">
@@ -1531,13 +1571,16 @@
         <v>44</v>
       </c>
       <c r="C45" t="s">
+        <v>83</v>
+      </c>
+      <c r="D45" t="s">
         <v>84</v>
-      </c>
-      <c r="D45" t="s">
-        <v>85</v>
       </c>
       <c r="E45">
         <v>5</v>
+      </c>
+      <c r="F45" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="46" spans="2:6" x14ac:dyDescent="0.2">
@@ -1545,13 +1588,16 @@
         <v>45</v>
       </c>
       <c r="C46" t="s">
+        <v>85</v>
+      </c>
+      <c r="D46" t="s">
         <v>86</v>
-      </c>
-      <c r="D46" t="s">
-        <v>87</v>
       </c>
       <c r="E46">
         <v>5</v>
+      </c>
+      <c r="F46" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="47" spans="2:6" x14ac:dyDescent="0.2">
@@ -1559,13 +1605,16 @@
         <v>46</v>
       </c>
       <c r="C47" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D47" t="s">
-        <v>89</v>
+        <v>139</v>
       </c>
       <c r="E47">
         <v>5</v>
+      </c>
+      <c r="F47" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="48" spans="2:6" x14ac:dyDescent="0.2">
@@ -1573,16 +1622,16 @@
         <v>47</v>
       </c>
       <c r="C48" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D48" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E48">
         <v>5</v>
       </c>
       <c r="F48" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
     </row>
     <row r="49" spans="2:6" x14ac:dyDescent="0.2">
@@ -1590,10 +1639,10 @@
         <v>48</v>
       </c>
       <c r="C49" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D49" t="s">
-        <v>93</v>
+        <v>140</v>
       </c>
       <c r="E49">
         <v>5</v>
@@ -1604,16 +1653,16 @@
         <v>49</v>
       </c>
       <c r="C50" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D50" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="E50">
         <v>5</v>
       </c>
       <c r="F50" t="s">
-        <v>124</v>
+        <v>141</v>
       </c>
     </row>
     <row r="51" spans="2:6" x14ac:dyDescent="0.2">
@@ -1621,10 +1670,10 @@
         <v>50</v>
       </c>
       <c r="C51" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D51" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E51">
         <v>5</v>
@@ -1635,16 +1684,16 @@
         <v>51</v>
       </c>
       <c r="C52" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D52" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="E52">
         <v>6</v>
       </c>
       <c r="F52" t="s">
-        <v>125</v>
+        <v>142</v>
       </c>
     </row>
     <row r="53" spans="2:6" x14ac:dyDescent="0.2">
@@ -1652,16 +1701,16 @@
         <v>52</v>
       </c>
       <c r="C53" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D53" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E53">
         <v>6</v>
       </c>
       <c r="F53" t="s">
-        <v>126</v>
+        <v>143</v>
       </c>
     </row>
     <row r="54" spans="2:6" x14ac:dyDescent="0.2">
@@ -1669,16 +1718,16 @@
         <v>53</v>
       </c>
       <c r="C54" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D54" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="E54">
         <v>6</v>
       </c>
       <c r="F54" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
     </row>
     <row r="55" spans="2:6" x14ac:dyDescent="0.2">
@@ -1686,16 +1735,16 @@
         <v>54</v>
       </c>
       <c r="C55" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D55" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E55">
         <v>6</v>
       </c>
       <c r="F55" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
     </row>
     <row r="56" spans="2:6" x14ac:dyDescent="0.2">
@@ -1703,13 +1752,16 @@
         <v>55</v>
       </c>
       <c r="C56" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D56" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E56">
         <v>6</v>
+      </c>
+      <c r="F56" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="57" spans="2:6" x14ac:dyDescent="0.2">
@@ -1717,16 +1769,16 @@
         <v>56</v>
       </c>
       <c r="C57" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D57" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E57">
         <v>6</v>
       </c>
       <c r="F57" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
     </row>
     <row r="58" spans="2:6" x14ac:dyDescent="0.2">
@@ -1734,16 +1786,16 @@
         <v>57</v>
       </c>
       <c r="C58" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D58" t="s">
-        <v>111</v>
+        <v>145</v>
       </c>
       <c r="E58">
         <v>6</v>
       </c>
       <c r="F58" t="s">
-        <v>130</v>
+        <v>160</v>
       </c>
     </row>
     <row r="59" spans="2:6" x14ac:dyDescent="0.2">
@@ -1751,13 +1803,16 @@
         <v>58</v>
       </c>
       <c r="C59" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D59" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E59">
         <v>6</v>
+      </c>
+      <c r="F59" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="60" spans="2:6" x14ac:dyDescent="0.2">
@@ -1765,13 +1820,16 @@
         <v>59</v>
       </c>
       <c r="C60" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D60" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="E60">
         <v>6</v>
+      </c>
+      <c r="F60" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="61" spans="2:6" x14ac:dyDescent="0.2">
@@ -1779,13 +1837,16 @@
         <v>60</v>
       </c>
       <c r="C61" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D61" t="s">
-        <v>117</v>
+        <v>147</v>
       </c>
       <c r="E61">
         <v>6</v>
+      </c>
+      <c r="F61" t="s">
+        <v>148</v>
       </c>
     </row>
   </sheetData>
